--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1500905.275667431</v>
+        <v>1498245.432142353</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>345.883904129465</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>199.5368007482932</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>99.90681807664345</v>
+        <v>99.90681807664363</v>
       </c>
       <c r="I3" t="n">
         <v>45.44580843958667</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183545</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
         <v>147.9721212459916</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>105.1705422159072</v>
+        <v>111.8526470095982</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.07683344196967</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>118.5644120998619</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>10.80420929661944</v>
+        <v>182.6532452543415</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>139.4322135106849</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>109.8948391283503</v>
+        <v>412.2436403474272</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>92.54004601234855</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>139.3108928771024</v>
+        <v>139.310892877102</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>135.7067558814507</v>
       </c>
       <c r="H9" t="n">
-        <v>96.42777606792041</v>
+        <v>96.42777606792032</v>
       </c>
       <c r="I9" t="n">
-        <v>33.04322907152314</v>
+        <v>33.04322907152283</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>141.2810481729025</v>
+        <v>141.2810481729024</v>
       </c>
       <c r="T9" t="n">
         <v>193.5674321249209</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>134.4579284877397</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>61.26968925683465</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>222.082528811566</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2441817741499</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>61.25222900073706</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,10 +1385,10 @@
         <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>73.68367395493401</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403528</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>37.30359504419073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>60.7089134987046</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>356.5845196044227</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8432760127576</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001829</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.9650244390951</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>121.7160989470414</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518785</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>73.97774435452</v>
       </c>
       <c r="C19" t="n">
-        <v>82.47290449300763</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722598</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428088</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>254.8095967907971</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085811892</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>141.3831318263018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695624</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>3.006892987834117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186432</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833829</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>165.1666147997981</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428088</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703262</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142856</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>94.91529601901348</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428179</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599944</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144412</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>102.1557845699808</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797025</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1109.257111118741</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="C2" t="n">
-        <v>740.2945941783289</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="D2" t="n">
-        <v>740.2945941783289</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="E2" t="n">
-        <v>390.9169132394753</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="F2" t="n">
-        <v>383.9714124902719</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G2" t="n">
-        <v>370.9240347671034</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H2" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I2" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K2" t="n">
-        <v>156.4983241075885</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L2" t="n">
-        <v>683.1408478992856</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M2" t="n">
-        <v>1314.858658882597</v>
+        <v>1829.339000802906</v>
       </c>
       <c r="N2" t="n">
-        <v>1942.166326942444</v>
+        <v>2023.673213694888</v>
       </c>
       <c r="O2" t="n">
-        <v>2489.327531709521</v>
+        <v>2193.842239011848</v>
       </c>
       <c r="P2" t="n">
-        <v>2600.061856959048</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4370,10 +4370,10 @@
         <v>1482.72286937982</v>
       </c>
       <c r="X2" t="n">
-        <v>1109.257111118741</v>
+        <v>1109.25711111874</v>
       </c>
       <c r="Y2" t="n">
-        <v>1109.257111118741</v>
+        <v>1109.25711111874</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C3" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D3" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E3" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G3" t="n">
-        <v>199.5217544044918</v>
+        <v>199.521754404492</v>
       </c>
       <c r="H3" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
         <v>120.3087392029699</v>
@@ -4425,7 +4425,7 @@
         <v>2466.825516591625</v>
       </c>
       <c r="P3" t="n">
-        <v>2612.309035778666</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4446,10 +4446,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W3" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y3" t="n">
         <v>1134.337940986287</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2186.263846939096</v>
+        <v>650.1945570251878</v>
       </c>
       <c r="C4" t="n">
-        <v>2186.263846939096</v>
+        <v>650.1945570251878</v>
       </c>
       <c r="D4" t="n">
-        <v>2036.14720752676</v>
+        <v>500.077917612852</v>
       </c>
       <c r="E4" t="n">
-        <v>1888.234113944367</v>
+        <v>352.1648240304589</v>
       </c>
       <c r="F4" t="n">
-        <v>1741.344166446457</v>
+        <v>352.1648240304589</v>
       </c>
       <c r="G4" t="n">
-        <v>1741.344166446457</v>
+        <v>183.5579790258423</v>
       </c>
       <c r="H4" t="n">
-        <v>1741.344166446457</v>
+        <v>183.5579790258423</v>
       </c>
       <c r="I4" t="n">
-        <v>1635.111295521298</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J4" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L4" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M4" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N4" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O4" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P4" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W4" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X4" t="n">
-        <v>2407.056426082626</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y4" t="n">
-        <v>2186.263846939096</v>
+        <v>831.8430218554275</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1349.814732570548</v>
+        <v>1755.218346231338</v>
       </c>
       <c r="C5" t="n">
-        <v>980.852215630136</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="D5" t="n">
-        <v>980.852215630136</v>
+        <v>1386.255829290926</v>
       </c>
       <c r="E5" t="n">
-        <v>980.852215630136</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F5" t="n">
-        <v>569.8663108405285</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>152.778529076956</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
-        <v>152.778529076956</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I5" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
         <v>241.3408185533492</v>
@@ -4571,16 +4571,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L5" t="n">
-        <v>1197.621189819594</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M5" t="n">
-        <v>1384.320602645002</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N5" t="n">
-        <v>1578.654815536984</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O5" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P5" t="n">
         <v>2389.870016205742</v>
@@ -4595,22 +4595,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2420.246115248354</v>
+        <v>2515.28394455654</v>
       </c>
       <c r="V5" t="n">
-        <v>2089.183227904784</v>
+        <v>2515.28394455654</v>
       </c>
       <c r="W5" t="n">
-        <v>1736.414572634669</v>
+        <v>2515.28394455654</v>
       </c>
       <c r="X5" t="n">
-        <v>1736.414572634669</v>
+        <v>2141.81818629546</v>
       </c>
       <c r="Y5" t="n">
-        <v>1736.414572634669</v>
+        <v>2141.81818629546</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G6" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H6" t="n">
         <v>98.60577654929637</v>
       </c>
       <c r="I6" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
         <v>171.3601713965085</v>
@@ -4653,13 +4653,13 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M6" t="n">
-        <v>1232.272002033951</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686616</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439339</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
         <v>2404.332520920175</v>
@@ -4668,7 +4668,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R6" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S6" t="n">
         <v>2464.467288245464</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>497.6206000322521</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C7" t="n">
-        <v>497.6206000322521</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D7" t="n">
-        <v>347.5039606199164</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E7" t="n">
-        <v>199.5908670375232</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K7" t="n">
         <v>153.7488491352227</v>
@@ -4756,19 +4756,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>1041.7222582751</v>
+        <v>868.1373734693198</v>
       </c>
       <c r="V7" t="n">
-        <v>787.0377700692127</v>
+        <v>868.1373734693198</v>
       </c>
       <c r="W7" t="n">
-        <v>497.6206000322521</v>
+        <v>578.7202034323591</v>
       </c>
       <c r="X7" t="n">
-        <v>497.6206000322521</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="Y7" t="n">
-        <v>497.6206000322521</v>
+        <v>350.7306525343417</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>991.3543177962804</v>
+        <v>1344.122973066395</v>
       </c>
       <c r="C8" t="n">
-        <v>622.3918008558687</v>
+        <v>975.160456125983</v>
       </c>
       <c r="D8" t="n">
-        <v>264.1261022491182</v>
+        <v>616.8947575192326</v>
       </c>
       <c r="E8" t="n">
-        <v>264.1261022491182</v>
+        <v>476.0541378114701</v>
       </c>
       <c r="F8" t="n">
-        <v>257.1806014999148</v>
+        <v>469.1086370622666</v>
       </c>
       <c r="G8" t="n">
-        <v>146.1757134914801</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>146.1757134914801</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>297.9118008339142</v>
+        <v>130.5061518135626</v>
       </c>
       <c r="K8" t="n">
-        <v>606.8745119374397</v>
+        <v>618.7585027578377</v>
       </c>
       <c r="L8" t="n">
-        <v>851.3867526472801</v>
+        <v>863.2707434676807</v>
       </c>
       <c r="M8" t="n">
-        <v>1155.12317034607</v>
+        <v>1167.007161166474</v>
       </c>
       <c r="N8" t="n">
-        <v>1468.388169208708</v>
+        <v>1480.272160029115</v>
       </c>
       <c r="O8" t="n">
-        <v>1750.86016323772</v>
+        <v>1762.744154058129</v>
       </c>
       <c r="P8" t="n">
-        <v>2276.023195151743</v>
+        <v>2287.907185972154</v>
       </c>
       <c r="Q8" t="n">
-        <v>2593.177001405963</v>
+        <v>2605.060992226376</v>
       </c>
       <c r="R8" t="n">
         <v>2635.045976980643</v>
@@ -4841,13 +4841,13 @@
         <v>2494.327903367408</v>
       </c>
       <c r="W8" t="n">
-        <v>2141.559248097294</v>
+        <v>2494.327903367408</v>
       </c>
       <c r="X8" t="n">
-        <v>1768.093489836214</v>
+        <v>2120.862145106328</v>
       </c>
       <c r="Y8" t="n">
-        <v>1377.954157860402</v>
+        <v>1730.722813130516</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>949.7166957240912</v>
+        <v>949.7166957240908</v>
       </c>
       <c r="C9" t="n">
-        <v>775.2636664429642</v>
+        <v>775.2636664429638</v>
       </c>
       <c r="D9" t="n">
-        <v>626.329256781713</v>
+        <v>626.3292567817125</v>
       </c>
       <c r="E9" t="n">
-        <v>467.0918017762575</v>
+        <v>467.0918017762571</v>
       </c>
       <c r="F9" t="n">
-        <v>320.5572438031425</v>
+        <v>320.557243803142</v>
       </c>
       <c r="G9" t="n">
-        <v>183.4797126097579</v>
+        <v>183.4797126097575</v>
       </c>
       <c r="H9" t="n">
-        <v>86.07791860175745</v>
+        <v>86.07791860175713</v>
       </c>
       <c r="I9" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>205.0534608927865</v>
+        <v>205.0534608927873</v>
       </c>
       <c r="K9" t="n">
-        <v>372.8800434056709</v>
+        <v>592.0690635359304</v>
       </c>
       <c r="L9" t="n">
-        <v>587.5427362875846</v>
+        <v>1015.345156390857</v>
       </c>
       <c r="M9" t="n">
-        <v>1239.716615590294</v>
+        <v>1285.203262171209</v>
       </c>
       <c r="N9" t="n">
-        <v>1891.890494893003</v>
+        <v>1576.61235393946</v>
       </c>
       <c r="O9" t="n">
-        <v>2136.253087275082</v>
+        <v>1820.974946321541</v>
       </c>
       <c r="P9" t="n">
-        <v>2313.042544805117</v>
+        <v>2313.042544805116</v>
       </c>
       <c r="Q9" t="n">
         <v>2589.278933760978</v>
@@ -4911,7 +4911,7 @@
         <v>2446.5708042934</v>
       </c>
       <c r="T9" t="n">
-        <v>2251.048145581359</v>
+        <v>2251.048145581358</v>
       </c>
       <c r="U9" t="n">
         <v>2022.93329667459</v>
@@ -4920,7 +4920,7 @@
         <v>1787.781188442847</v>
       </c>
       <c r="W9" t="n">
-        <v>1533.543831714646</v>
+        <v>1533.543831714645</v>
       </c>
       <c r="X9" t="n">
         <v>1325.692331509113</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.6336483335039</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C10" t="n">
-        <v>202.8175589519486</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
-        <v>56.32012312205246</v>
+        <v>56.32012312205297</v>
       </c>
       <c r="K10" t="n">
-        <v>192.1044230969982</v>
+        <v>192.1044230969996</v>
       </c>
       <c r="L10" t="n">
-        <v>421.388012769621</v>
+        <v>421.3880127696234</v>
       </c>
       <c r="M10" t="n">
-        <v>673.5245332424496</v>
+        <v>673.5245332424532</v>
       </c>
       <c r="N10" t="n">
-        <v>925.1004272331206</v>
+        <v>925.1004272331254</v>
       </c>
       <c r="O10" t="n">
-        <v>1141.455188557394</v>
+        <v>1141.455188557399</v>
       </c>
       <c r="P10" t="n">
-        <v>1303.063381081415</v>
+        <v>1303.063381081422</v>
       </c>
       <c r="Q10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617906</v>
       </c>
       <c r="R10" t="n">
-        <v>1331.517436617899</v>
+        <v>1331.517436617906</v>
       </c>
       <c r="S10" t="n">
-        <v>1331.517436617899</v>
+        <v>1269.628861611003</v>
       </c>
       <c r="T10" t="n">
-        <v>1331.517436617899</v>
+        <v>1045.303074932653</v>
       </c>
       <c r="U10" t="n">
-        <v>1331.517436617899</v>
+        <v>756.1675377870472</v>
       </c>
       <c r="V10" t="n">
-        <v>1076.832948412012</v>
+        <v>501.4830495811603</v>
       </c>
       <c r="W10" t="n">
-        <v>787.4157783750513</v>
+        <v>501.4830495811603</v>
       </c>
       <c r="X10" t="n">
-        <v>559.426227477034</v>
+        <v>273.4934986831429</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.6336483335039</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2017.088884830059</v>
+        <v>2332.418671408905</v>
       </c>
       <c r="C11" t="n">
-        <v>1648.126367889647</v>
+        <v>1963.456154468493</v>
       </c>
       <c r="D11" t="n">
-        <v>1289.860669282896</v>
+        <v>1605.190455861743</v>
       </c>
       <c r="E11" t="n">
-        <v>904.0724166846521</v>
+        <v>1219.402203263498</v>
       </c>
       <c r="F11" t="n">
-        <v>493.0865118950446</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>78.51106622469177</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469177</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386829</v>
+        <v>308.7333971386838</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.5155104420337</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301227</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878108</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856287</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="T11" t="n">
-        <v>3851.125357744756</v>
+        <v>3721.751200750376</v>
       </c>
       <c r="U11" t="n">
-        <v>3851.125357744756</v>
+        <v>3468.260484382984</v>
       </c>
       <c r="V11" t="n">
-        <v>3520.062470401186</v>
+        <v>3137.197597039413</v>
       </c>
       <c r="W11" t="n">
-        <v>3167.293815131072</v>
+        <v>2784.428941769299</v>
       </c>
       <c r="X11" t="n">
-        <v>2793.828056869992</v>
+        <v>2784.428941769299</v>
       </c>
       <c r="Y11" t="n">
-        <v>2403.68872489418</v>
+        <v>2394.289609793487</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469177</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469177</v>
+        <v>247.7399244450292</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843909</v>
+        <v>671.0277318723392</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282799</v>
+        <v>1184.341506116229</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1725.649813467296</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>2198.621366333046</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="Q12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>283.6713627826855</v>
+        <v>630.9639490295842</v>
       </c>
       <c r="C13" t="n">
-        <v>245.9909637481491</v>
+        <v>630.9639490295842</v>
       </c>
       <c r="D13" t="n">
-        <v>245.9909637481491</v>
+        <v>480.8473096172484</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481491</v>
+        <v>480.8473096172484</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>480.8473096172484</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469177</v>
+        <v>313.3674120937911</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469177</v>
+        <v>169.1323565987731</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="S13" t="n">
-        <v>1968.108379906986</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="T13" t="n">
-        <v>1747.294322457032</v>
+        <v>2094.58690870393</v>
       </c>
       <c r="U13" t="n">
-        <v>1458.20361589732</v>
+        <v>1805.496202144219</v>
       </c>
       <c r="V13" t="n">
-        <v>1203.519127691433</v>
+        <v>1550.811713938332</v>
       </c>
       <c r="W13" t="n">
-        <v>914.1019576544727</v>
+        <v>1261.394543901371</v>
       </c>
       <c r="X13" t="n">
-        <v>686.1124067564554</v>
+        <v>1033.404993003354</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.3198276129252</v>
+        <v>812.612413859824</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555047</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614635</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007885</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1153.408479409641</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126175</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.62987785606</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594981</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619169</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>141.6400447072585</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.4491011061239</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061239</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D16" t="n">
-        <v>779.332461693788</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E16" t="n">
-        <v>631.419368111395</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134845</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G16" t="n">
         <v>317.3152257880633</v>
@@ -5431,55 +5431,55 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2393.057567906032</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="S16" t="n">
-        <v>2393.057567906032</v>
+        <v>2360.51642936867</v>
       </c>
       <c r="T16" t="n">
-        <v>2393.057567906032</v>
+        <v>2140.837647083052</v>
       </c>
       <c r="U16" t="n">
-        <v>2103.981354220758</v>
+        <v>1851.761433397779</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.296866014872</v>
+        <v>1851.761433397779</v>
       </c>
       <c r="W16" t="n">
-        <v>1559.879695977911</v>
+        <v>1728.815878905818</v>
       </c>
       <c r="X16" t="n">
-        <v>1331.890145079894</v>
+        <v>1500.8263280078</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.097565936363</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.754138832765</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>680.4481746984131</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860774</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036843</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057739</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630047</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835333</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
         <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835329</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711972</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="E25" t="n">
-        <v>549.614540988804</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="26">
@@ -6212,43 +6212,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E28" t="n">
-        <v>264.0500279773689</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,7 +6400,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6449,61 +6449,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.853600740071</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121641</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998282</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998282</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998283</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703107</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400703</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121634</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.50206557031</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273902</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488566</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C37" t="n">
-        <v>883.8931825606589</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>733.7765431483231</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>585.8634495659301</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9735020680198</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>271.7774027828998</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580259</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.3616186032</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397313</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360353</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318805</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="38">
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111743</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075833</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.917417812163</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121644</v>
+        <v>344.917417812163</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270444</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362668</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908933</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908934</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>391.2261292428727</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>298.4699926239124</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>458.0981188384287</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>213.8698272853578</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>48.10560617263553</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0447662673793</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8474,7 +8474,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>53.71238874125044</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,28 +8532,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>43.06218637595512</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>210.7206060333445</v>
       </c>
       <c r="M9" t="n">
-        <v>386.1775490124839</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>364.4088762974352</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>44.05672894381739</v>
+        <v>44.05672894381684</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-12</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>2.387423592153937e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>321.4816126627435</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238038</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114108</v>
+        <v>97.97552699114098</v>
       </c>
       <c r="T11" t="n">
-        <v>128.0804154244439</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>129.9432260544371</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146345</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>157.89700337675</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>50.29152613728877</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.2915261372913</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>32.21572715198845</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>164.8068993895496</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>105.8542358274173</v>
       </c>
       <c r="C19" t="n">
-        <v>84.7739166056202</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.36835372228829</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>31.71340154579389</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>116.6691671648123</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>144.8013425629424</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012055</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>32.89260457060093</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393055</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671011873</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>121.3563835367929</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393148</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194264</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>138.4949402405088</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>45.3794168272104</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194217</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.22910392194289</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823152</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>960470.0573553623</v>
+        <v>960470.0573553619</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835287.5210172908</v>
+        <v>835287.5210172917</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>909114.1827429086</v>
+        <v>909114.1827429084</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013807</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013805</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="14">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651771</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651769</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.106165177</v>
-      </c>
       <c r="E2" t="n">
-        <v>460660.0452039819</v>
+        <v>460660.0452039824</v>
       </c>
       <c r="F2" t="n">
-        <v>501674.8572737697</v>
+        <v>501674.8572737694</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="I2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
@@ -26350,10 +26350,10 @@
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062534</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26363,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>792647.413710985</v>
+        <v>792647.4137109849</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143427.3523991848</v>
+        <v>143427.3523991883</v>
       </c>
       <c r="E3" t="n">
-        <v>458840.6534729321</v>
+        <v>458840.6534729306</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051389</v>
+        <v>166521.347105137</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557839</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002809</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80399.89743135503</v>
+        <v>80399.89743135557</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848942</v>
+        <v>43782.40655848881</v>
       </c>
       <c r="O3" t="n">
         <v>3023.297977224584</v>
@@ -26421,7 +26421,7 @@
         <v>189891.8124216188</v>
       </c>
       <c r="D4" t="n">
-        <v>160507.7126476381</v>
+        <v>160507.7126476374</v>
       </c>
       <c r="E4" t="n">
         <v>6798.303539401317</v>
@@ -26430,34 +26430,34 @@
         <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707406</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707363</v>
+        <v>6897.424496707425</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707351</v>
+        <v>6897.424496707421</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707421</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707406</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="C5" t="n">
-        <v>86618.07783747559</v>
+        <v>86618.07783747558</v>
       </c>
       <c r="D5" t="n">
-        <v>90269.01801629359</v>
+        <v>90269.01801629366</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>236641.2159060825</v>
       </c>
       <c r="D6" t="n">
-        <v>118947.0231020605</v>
+        <v>118947.0231020577</v>
       </c>
       <c r="E6" t="n">
-        <v>-91072.63397049856</v>
+        <v>-91282.5982143415</v>
       </c>
       <c r="F6" t="n">
-        <v>228120.4897793103</v>
+        <v>228074.5847837464</v>
       </c>
       <c r="G6" t="n">
-        <v>385279.4342500604</v>
+        <v>385244.6963246252</v>
       </c>
       <c r="H6" t="n">
-        <v>396446.6704856391</v>
+        <v>396411.9325602034</v>
       </c>
       <c r="I6" t="n">
-        <v>396446.6704856394</v>
+        <v>396411.9325602033</v>
       </c>
       <c r="J6" t="n">
-        <v>224085.6780853583</v>
+        <v>224050.9401599226</v>
       </c>
       <c r="K6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="L6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602034</v>
       </c>
       <c r="M6" t="n">
-        <v>316046.7730542842</v>
+        <v>316012.0351288479</v>
       </c>
       <c r="N6" t="n">
-        <v>352664.2639271496</v>
+        <v>352629.5260017146</v>
       </c>
       <c r="O6" t="n">
-        <v>393423.3725084146</v>
+        <v>393388.6345829788</v>
       </c>
       <c r="P6" t="n">
-        <v>396446.6704856393</v>
+        <v>396411.9325602033</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26741,43 @@
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>760.9504204673306</v>
+        <v>760.9504204673347</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="D4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086472</v>
+        <v>981.388327808649</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>167.4743201292655</v>
+        <v>167.4743201292696</v>
       </c>
       <c r="E3" t="n">
-        <v>451.2198470272247</v>
+        <v>451.2198470272222</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218306</v>
+        <v>145.870781221829</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625287466</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>322.6268335634865</v>
+        <v>322.6268335634884</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364143</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634862</v>
+        <v>322.6268335634884</v>
       </c>
       <c r="N4" t="n">
-        <v>178.75696251736</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>322.6268335634865</v>
+        <v>322.6268335634884</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173597</v>
+        <v>178.7569625173575</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364143</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>36.04646594279677</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>207.3392449934182</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.84741111297626e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.588240815588506e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>18.09601566350982</v>
+        <v>11.41391086981881</v>
       </c>
       <c r="J4" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>19.41920745192063</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>132.5903741224387</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27783,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27828,16 +27828,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>275.4564453614776</v>
+        <v>103.6074094037555</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>242.4981565615769</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>302.3488012190768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>308.145823246979</v>
+        <v>308.1458232469789</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>92.54004601234791</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>209.7046517124902</v>
+        <v>209.7046517124901</v>
       </c>
       <c r="U8" t="n">
         <v>251.1009251344199</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>32.78889261088813</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28026,10 @@
         <v>166.6187736822062</v>
       </c>
       <c r="H10" t="n">
-        <v>150.0270165858486</v>
+        <v>150.0270165858485</v>
       </c>
       <c r="I10" t="n">
-        <v>114.1845078632266</v>
+        <v>114.1845078632264</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.5940343340315</v>
+        <v>115.5940343340312</v>
       </c>
       <c r="S10" t="n">
-        <v>200.1027954790071</v>
+        <v>138.8331062221723</v>
       </c>
       <c r="T10" t="n">
-        <v>222.082528811566</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2441817741499</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-4.361849161278823e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.059097167707859</v>
+        <v>3.059097167707876</v>
       </c>
       <c r="H8" t="n">
-        <v>31.32897886878812</v>
+        <v>31.32897886878829</v>
       </c>
       <c r="I8" t="n">
-        <v>117.9358435580574</v>
+        <v>117.935843558058</v>
       </c>
       <c r="J8" t="n">
-        <v>259.6370482377451</v>
+        <v>259.6370482377466</v>
       </c>
       <c r="K8" t="n">
-        <v>389.1286313468189</v>
+        <v>389.128631346821</v>
       </c>
       <c r="L8" t="n">
-        <v>482.7484762930584</v>
+        <v>482.748476293061</v>
       </c>
       <c r="M8" t="n">
-        <v>537.150695549283</v>
+        <v>537.150695549286</v>
       </c>
       <c r="N8" t="n">
-        <v>545.8423553770331</v>
+        <v>545.8423553770359</v>
       </c>
       <c r="O8" t="n">
-        <v>515.423457915638</v>
+        <v>515.4234579156407</v>
       </c>
       <c r="P8" t="n">
-        <v>439.9019965878501</v>
+        <v>439.9019965878525</v>
       </c>
       <c r="Q8" t="n">
-        <v>330.3480792693123</v>
+        <v>330.3480792693141</v>
       </c>
       <c r="R8" t="n">
-        <v>192.161012461029</v>
+        <v>192.16101246103</v>
       </c>
       <c r="S8" t="n">
-        <v>69.70917670914291</v>
+        <v>69.70917670914329</v>
       </c>
       <c r="T8" t="n">
-        <v>13.39119785164116</v>
+        <v>13.39119785164123</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2447277734166287</v>
+        <v>0.24472777341663</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.636761281759919</v>
+        <v>1.636761281759928</v>
       </c>
       <c r="H9" t="n">
-        <v>15.80766816857606</v>
+        <v>15.80766816857614</v>
       </c>
       <c r="I9" t="n">
-        <v>56.35340377989194</v>
+        <v>56.35340377989225</v>
       </c>
       <c r="J9" t="n">
-        <v>154.6380472385544</v>
+        <v>154.6380472385553</v>
       </c>
       <c r="K9" t="n">
-        <v>264.3010531164689</v>
+        <v>264.3010531164704</v>
       </c>
       <c r="L9" t="n">
-        <v>355.3853826908982</v>
+        <v>355.3853826909001</v>
       </c>
       <c r="M9" t="n">
-        <v>414.7179791546951</v>
+        <v>414.7179791546973</v>
       </c>
       <c r="N9" t="n">
-        <v>425.6943300310588</v>
+        <v>425.6943300310612</v>
       </c>
       <c r="O9" t="n">
-        <v>389.4271458404838</v>
+        <v>389.4271458404859</v>
       </c>
       <c r="P9" t="n">
-        <v>312.5496170406287</v>
+        <v>312.5496170406304</v>
       </c>
       <c r="Q9" t="n">
-        <v>208.9311418611433</v>
+        <v>208.9311418611444</v>
       </c>
       <c r="R9" t="n">
-        <v>101.6227750201466</v>
+        <v>101.6227750201471</v>
       </c>
       <c r="S9" t="n">
-        <v>30.40212293093531</v>
+        <v>30.40212293093547</v>
       </c>
       <c r="T9" t="n">
-        <v>6.597296569900722</v>
+        <v>6.597296569900758</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1076816632736789</v>
+        <v>0.1076816632736795</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.372205676252563</v>
+        <v>1.372205676252571</v>
       </c>
       <c r="H10" t="n">
-        <v>12.20015592159098</v>
+        <v>12.20015592159105</v>
       </c>
       <c r="I10" t="n">
-        <v>41.26596706403164</v>
+        <v>41.26596706403186</v>
       </c>
       <c r="J10" t="n">
-        <v>97.01494131105621</v>
+        <v>97.01494131105673</v>
       </c>
       <c r="K10" t="n">
-        <v>159.4253503864341</v>
+        <v>159.425350386435</v>
       </c>
       <c r="L10" t="n">
-        <v>204.0095602675856</v>
+        <v>204.0095602675867</v>
       </c>
       <c r="M10" t="n">
-        <v>215.0994770511177</v>
+        <v>215.0994770511188</v>
       </c>
       <c r="N10" t="n">
-        <v>209.9848922578128</v>
+        <v>209.984892257814</v>
       </c>
       <c r="O10" t="n">
-        <v>193.9550350397714</v>
+        <v>193.9550350397725</v>
       </c>
       <c r="P10" t="n">
-        <v>165.962039244219</v>
+        <v>165.9620392442199</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.9035134905669</v>
+        <v>114.9035134905675</v>
       </c>
       <c r="R10" t="n">
-        <v>61.69935704313796</v>
+        <v>61.69935704313829</v>
       </c>
       <c r="S10" t="n">
-        <v>23.91380255796512</v>
+        <v>23.91380255796524</v>
       </c>
       <c r="T10" t="n">
-        <v>5.863060616715495</v>
+        <v>5.863060616715527</v>
       </c>
       <c r="U10" t="n">
-        <v>0.07484758234104899</v>
+        <v>0.07484758234104939</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485646</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508988</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307177</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726052</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216967</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385742</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898381</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294402</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615132</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596472</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>189.2837238893247</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310854</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845325</v>
+        <v>660.6327957845334</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147136</v>
+        <v>678.1177801147144</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431805</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205467</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071844</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697583</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761894</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570603</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929609</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826897</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,28 +32075,28 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200318</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200318</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,10 +33050,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O36" t="n">
-        <v>687.0167715190038</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565776</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K2" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L2" t="n">
-        <v>531.9621452441386</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M2" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N2" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>111.8528537874005</v>
+        <v>410.322846411313</v>
       </c>
       <c r="Q2" t="n">
         <v>35.33749497130819</v>
@@ -34787,7 +34787,7 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
         <v>554.9858674269929</v>
@@ -34939,7 +34939,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
@@ -34948,7 +34948,7 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
-        <v>385.7577316459229</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
@@ -35021,7 +35021,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>229.4160469348626</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>247.6877588831326</v>
+        <v>78.59114371106028</v>
       </c>
       <c r="K8" t="n">
-        <v>312.0835465692177</v>
+        <v>493.1841928730052</v>
       </c>
       <c r="L8" t="n">
-        <v>246.9820613230712</v>
+        <v>246.9820613230738</v>
       </c>
       <c r="M8" t="n">
-        <v>306.8044623220103</v>
+        <v>306.8044623220133</v>
       </c>
       <c r="N8" t="n">
-        <v>316.4292917804422</v>
+        <v>316.429291780445</v>
       </c>
       <c r="O8" t="n">
-        <v>285.3252464939512</v>
+        <v>285.325246493954</v>
       </c>
       <c r="P8" t="n">
-        <v>530.4677090040632</v>
+        <v>530.4677090040656</v>
       </c>
       <c r="Q8" t="n">
-        <v>320.3573800547675</v>
+        <v>320.3573800547693</v>
       </c>
       <c r="R8" t="n">
-        <v>42.29189451987929</v>
+        <v>30.28786338814835</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>153.8914559122966</v>
+        <v>153.8914559122974</v>
       </c>
       <c r="K9" t="n">
-        <v>169.5218005180651</v>
+        <v>390.92485115469</v>
       </c>
       <c r="L9" t="n">
-        <v>216.831002911024</v>
+        <v>427.5516089443704</v>
       </c>
       <c r="M9" t="n">
-        <v>658.7614942451607</v>
+        <v>272.583945232679</v>
       </c>
       <c r="N9" t="n">
-        <v>658.7614942451607</v>
+        <v>294.3526179477278</v>
       </c>
       <c r="O9" t="n">
-        <v>246.8309013960393</v>
+        <v>246.8309013960414</v>
       </c>
       <c r="P9" t="n">
-        <v>178.5752096262984</v>
+        <v>497.0379782662373</v>
       </c>
       <c r="Q9" t="n">
-        <v>279.0266555109709</v>
+        <v>279.026655510972</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65576119438343</v>
+        <v>3.655761194383956</v>
       </c>
       <c r="K10" t="n">
-        <v>137.1558585605513</v>
+        <v>137.1558585605521</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5995855279018</v>
+        <v>231.5995855279029</v>
       </c>
       <c r="M10" t="n">
-        <v>254.6833540129583</v>
+        <v>254.6833540129594</v>
       </c>
       <c r="N10" t="n">
-        <v>254.1170646370414</v>
+        <v>254.1170646370425</v>
       </c>
       <c r="O10" t="n">
-        <v>218.5401629538111</v>
+        <v>218.5401629538122</v>
       </c>
       <c r="P10" t="n">
-        <v>163.2405985091125</v>
+        <v>163.2405985091134</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.74147023887252</v>
+        <v>28.74147023887315</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040314</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276247</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517094</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584693</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077534</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062436</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156581</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>51.44228491496573</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512113</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625141</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313803</v>
+        <v>546.7760680313811</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987361</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211628</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701827</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190454</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998343</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>49.32163785977574</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366985</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366985</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902436</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367799</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396449</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O36" t="n">
-        <v>544.4205270745593</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396449</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121332</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
